--- a/uploads/training/Para_predecir_U2.xlsx
+++ b/uploads/training/Para_predecir_U2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wienercarrion-my.sharepoint.com/personal/daniel_herrera_uwiener_edu_pe/Documents/NW/Proyecto Predicción/MODELO/DATA estudiantes/Data prueba historico/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{5624ADF8-7586-47B9-829B-4D352665E0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0335A1D9-829B-495E-A24A-D432409BCB6A}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{5624ADF8-7586-47B9-829B-4D352665E0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25215BBB-FC4A-469C-93EE-5C70F7D1B2CE}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="495" windowWidth="22245" windowHeight="15705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="20925" windowHeight="14955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2028" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2030" uniqueCount="56">
   <si>
     <t>Periodo</t>
   </si>
@@ -202,6 +202,12 @@
   </si>
   <si>
     <t>NP</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>U4</t>
   </si>
 </sst>
 </file>
@@ -478,10 +484,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -745,12 +747,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S225"/>
+  <dimension ref="A1:U225"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Q1" sqref="Q1"/>
-      <selection pane="bottomLeft" activeCell="B107" sqref="B107"/>
+      <selection pane="bottomLeft" activeCell="U1" sqref="A1:U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,7 +763,7 @@
     <col min="10" max="10" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -819,8 +821,14 @@
       <c r="S1" s="13" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T1" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -876,7 +884,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -932,7 +940,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -988,7 +996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1044,7 +1052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1100,7 +1108,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1156,7 +1164,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1212,7 +1220,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1268,7 +1276,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1324,7 +1332,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1380,7 +1388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1436,7 +1444,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1492,7 +1500,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1548,7 +1556,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1604,7 +1612,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
